--- a/schematic/CRSFtoPWM.xlsx
+++ b/schematic/CRSFtoPWM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\CRSFtoPWM\schematic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A69B8F3B-2F6A-449B-82D7-9E9C3A14C9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2372247A-86A3-475E-A402-7102F96F2C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
   <si>
     <t>Source:</t>
   </si>
@@ -40,22 +40,16 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Cmp name</t>
-  </si>
-  <si>
     <t>Footprint</t>
   </si>
   <si>
     <t>Vendor</t>
   </si>
   <si>
-    <t xml:space="preserve">C1, C2, </t>
-  </si>
-  <si>
-    <t>100n</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t xml:space="preserve">C1, C2, C8, C9, </t>
+  </si>
+  <si>
+    <t>100nF</t>
   </si>
   <si>
     <t>Capacitor_SMD:C_0402_1005Metric</t>
@@ -64,7 +58,7 @@
     <t xml:space="preserve">C3, C6, </t>
   </si>
   <si>
-    <t>10 uF</t>
+    <t>10uF</t>
   </si>
   <si>
     <t>Capacitor_SMD:C_0603_1608Metric</t>
@@ -73,7 +67,7 @@
     <t xml:space="preserve">C4, </t>
   </si>
   <si>
-    <t>1 uF</t>
+    <t>1uF</t>
   </si>
   <si>
     <t xml:space="preserve">C5, </t>
@@ -82,13 +76,7 @@
     <t xml:space="preserve">C7, </t>
   </si>
   <si>
-    <t>2.2 uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C8, C9, </t>
-  </si>
-  <si>
-    <t>100nF</t>
+    <t>2.2uF</t>
   </si>
   <si>
     <t xml:space="preserve">D1, </t>
@@ -106,9 +94,6 @@
     <t>Bat+</t>
   </si>
   <si>
-    <t>Conn_01x01</t>
-  </si>
-  <si>
     <t>Connector_PinHeader_2.54mm:PinHeader_1x01_P2.54mm_Vertical</t>
   </si>
   <si>
@@ -118,9 +103,6 @@
     <t>UART1/Rx</t>
   </si>
   <si>
-    <t>Conn_01x04</t>
-  </si>
-  <si>
     <t>Connector_PinHeader_2.54mm:PinHeader_1x04_P2.54mm_Vertical</t>
   </si>
   <si>
@@ -130,9 +112,6 @@
     <t>ICSP</t>
   </si>
   <si>
-    <t>Conn_01x05</t>
-  </si>
-  <si>
     <t>Connector_PinHeader_2.54mm:PinHeader_1x05_P2.54mm_Vertical</t>
   </si>
   <si>
@@ -160,9 +139,6 @@
     <t>470R</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>Inductor_SMD:L_0603_1608Metric</t>
   </si>
   <si>
@@ -170,9 +146,6 @@
   </si>
   <si>
     <t>6K8</t>
-  </si>
-  <si>
-    <t>R</t>
   </si>
   <si>
     <t>Resistor_SMD:R_0603_1608Metric</t>
@@ -1074,18 +1047,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F4" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="18.7265625" customWidth="1"/>
+    <col min="1" max="1" width="12.90625" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1093,10 +1067,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1104,7 +1078,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1117,372 +1091,292 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>7</v>
       </c>
-      <c r="G6" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>13</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E13" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
         <v>26</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>27</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="E14" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="D15" t="s">
         <v>30</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" t="s">
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
         <v>32</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
         <v>35</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>36</v>
       </c>
-      <c r="E16" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>38</v>
       </c>
-      <c r="B17">
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20">
         <v>3</v>
       </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
         <v>42</v>
       </c>
-      <c r="D18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>52</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>53</v>
       </c>
-      <c r="D21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
         <v>54</v>
       </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D24" t="s">
         <v>55</v>
       </c>
-      <c r="D22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>56</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
         <v>57</v>
       </c>
-      <c r="D23" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>59</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
         <v>60</v>
       </c>
-      <c r="D24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D26" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>